--- a/pnad_painel/pnadcontinua/tabela_matriz.xlsx
+++ b/pnad_painel/pnadcontinua/tabela_matriz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredie\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Monografia\pnad_painel\pnadcontinua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04537DAC-8ADF-45BD-918B-C010A84AFBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F14D2D0-C807-4514-9B17-7EDF01CC70F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{25C1EC3B-339F-4D4A-A353-B4A961081C97}"/>
   </bookViews>
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -240,6 +240,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,7 +572,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,25 +598,25 @@
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
